--- a/stock_predictor_ai/data/cleaned/HPE.xlsx
+++ b/stock_predictor_ai/data/cleaned/HPE.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2439"/>
+  <dimension ref="A1:F2440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49229,6 +49229,26 @@
         <v>1398587</v>
       </c>
     </row>
+    <row r="2440">
+      <c r="A2440" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2440" t="n">
+        <v>20.90500068664551</v>
+      </c>
+      <c r="C2440" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="D2440" t="n">
+        <v>20.8799991607666</v>
+      </c>
+      <c r="E2440" t="n">
+        <v>21.02000045776367</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>607502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HPE.xlsx
+++ b/stock_predictor_ai/data/cleaned/HPE.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2440"/>
+  <dimension ref="A1:F2441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49249,6 +49249,26 @@
         <v>607502</v>
       </c>
     </row>
+    <row r="2441">
+      <c r="A2441" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2441" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="C2441" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="D2441" t="n">
+        <v>20.28000068664551</v>
+      </c>
+      <c r="E2441" t="n">
+        <v>20.86000061035156</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>11866200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HPE.xlsx
+++ b/stock_predictor_ai/data/cleaned/HPE.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2441"/>
+  <dimension ref="A1:F2442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49269,6 +49269,26 @@
         <v>11866200</v>
       </c>
     </row>
+    <row r="2442">
+      <c r="A2442" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2442" t="n">
+        <v>20.80500030517578</v>
+      </c>
+      <c r="C2442" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="D2442" t="n">
+        <v>20.65500068664551</v>
+      </c>
+      <c r="E2442" t="n">
+        <v>21.01000022888184</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>1862048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HPE.xlsx
+++ b/stock_predictor_ai/data/cleaned/HPE.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2442"/>
+  <dimension ref="A1:F2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49289,6 +49289,26 @@
         <v>1862048</v>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2443" t="n">
+        <v>22.48999977111816</v>
+      </c>
+      <c r="C2443" t="n">
+        <v>22.5049991607666</v>
+      </c>
+      <c r="D2443" t="n">
+        <v>21.92000007629395</v>
+      </c>
+      <c r="E2443" t="n">
+        <v>22.04999923706055</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>13860349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HPE.xlsx
+++ b/stock_predictor_ai/data/cleaned/HPE.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2443"/>
+  <dimension ref="A1:F2438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49209,106 +49211,6 @@
         <v>17126200</v>
       </c>
     </row>
-    <row r="2439">
-      <c r="A2439" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2439" t="n">
-        <v>21.26499938964844</v>
-      </c>
-      <c r="C2439" t="n">
-        <v>21.46999931335449</v>
-      </c>
-      <c r="D2439" t="n">
-        <v>21.15999984741211</v>
-      </c>
-      <c r="E2439" t="n">
-        <v>21.44000053405762</v>
-      </c>
-      <c r="F2439" t="n">
-        <v>1398587</v>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2440" t="n">
-        <v>20.90500068664551</v>
-      </c>
-      <c r="C2440" t="n">
-        <v>21.02000045776367</v>
-      </c>
-      <c r="D2440" t="n">
-        <v>20.8799991607666</v>
-      </c>
-      <c r="E2440" t="n">
-        <v>21.02000045776367</v>
-      </c>
-      <c r="F2440" t="n">
-        <v>607502</v>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2441" t="n">
-        <v>20.28000068664551</v>
-      </c>
-      <c r="C2441" t="n">
-        <v>20.89999961853027</v>
-      </c>
-      <c r="D2441" t="n">
-        <v>20.28000068664551</v>
-      </c>
-      <c r="E2441" t="n">
-        <v>20.86000061035156</v>
-      </c>
-      <c r="F2441" t="n">
-        <v>11866200</v>
-      </c>
-    </row>
-    <row r="2442">
-      <c r="A2442" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2442" t="n">
-        <v>20.80500030517578</v>
-      </c>
-      <c r="C2442" t="n">
-        <v>21.09000015258789</v>
-      </c>
-      <c r="D2442" t="n">
-        <v>20.65500068664551</v>
-      </c>
-      <c r="E2442" t="n">
-        <v>21.01000022888184</v>
-      </c>
-      <c r="F2442" t="n">
-        <v>1862048</v>
-      </c>
-    </row>
-    <row r="2443">
-      <c r="A2443" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2443" t="n">
-        <v>22.48999977111816</v>
-      </c>
-      <c r="C2443" t="n">
-        <v>22.5049991607666</v>
-      </c>
-      <c r="D2443" t="n">
-        <v>21.92000007629395</v>
-      </c>
-      <c r="E2443" t="n">
-        <v>22.04999923706055</v>
-      </c>
-      <c r="F2443" t="n">
-        <v>13860349</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HPE.xlsx
+++ b/stock_predictor_ai/data/cleaned/HPE.xlsx
@@ -63,9 +63,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2491"/>
+  <dimension ref="A1:F2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50271,6 +50269,26 @@
         <v>20682300</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2492" t="n">
+        <v>24.76000022888184</v>
+      </c>
+      <c r="C2492" t="n">
+        <v>25.03680038452148</v>
+      </c>
+      <c r="D2492" t="n">
+        <v>24.64699935913086</v>
+      </c>
+      <c r="E2492" t="n">
+        <v>24.79999923706055</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>1464925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
